--- a/DataBase/Process Data 2020 1222.xlsx
+++ b/DataBase/Process Data 2020 1222.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F12FEA-404C-4E67-82D7-54C20CD2F0EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E60620-1450-45AF-99D1-9CE27BE275A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2620,7 +2620,7 @@
   <dimension ref="A1:J342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B351" sqref="B350:B351"/>
+      <selection activeCell="C354" sqref="C354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8233,7 +8233,7 @@
         <v>INSERT INTO CarCarDriver(CarDriversPeopleID,CarHeDriveCarID) VALUES(93,162);</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>388</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>INSERT INTO CarCarDriver(CarDriversPeopleID,CarHeDriveCarID) VALUES(49,254);</v>
       </c>
     </row>
-    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>616</v>
       </c>
@@ -13228,7 +13228,7 @@
   <autoFilter ref="A1:J342" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="30E-580.66"/>
+        <filter val="30F-63740"/>
       </filters>
     </filterColumn>
   </autoFilter>
